--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,182 +1146,250 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44562</v>
+        <v>44477</v>
       </c>
       <c r="B5" s="8">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44488</v>
+      </c>
+      <c r="G5" s="8">
+        <v>45000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>10000</v>
+        <v>-37869</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44482</v>
+      </c>
+      <c r="B6" s="8">
+        <v>29292</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44501</v>
+      </c>
+      <c r="G6" s="8">
+        <v>49900</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>10000</v>
+        <v>-8577</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44584</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44483</v>
+      </c>
+      <c r="B7" s="16">
+        <v>26761</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44512</v>
+      </c>
+      <c r="G7" s="16">
+        <v>40000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>10000</v>
+        <v>18184</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44584</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44484</v>
+      </c>
+      <c r="B8" s="16">
+        <v>28265</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44512</v>
+      </c>
+      <c r="G8" s="16">
+        <v>49000</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>10000</v>
+        <v>46449</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44584</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="53">
+        <v>44486</v>
+      </c>
+      <c r="B9" s="13">
+        <v>26865</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>44512</v>
+      </c>
+      <c r="G9" s="16">
+        <v>28969</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>10000</v>
+        <v>73314</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44584</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="53">
+        <v>44488</v>
+      </c>
+      <c r="B10" s="13">
+        <v>29197</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15">
+        <v>44543</v>
+      </c>
+      <c r="G10" s="16">
+        <v>35000</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>102511</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="53">
+        <v>44489</v>
+      </c>
+      <c r="B11" s="17">
+        <v>42234</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="15">
+        <v>44554</v>
+      </c>
+      <c r="G11" s="16">
+        <v>30000</v>
+      </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>144745</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="53">
+        <v>44574</v>
+      </c>
+      <c r="B12" s="17">
+        <v>28386</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>173131</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="53">
+        <v>44574</v>
+      </c>
+      <c r="B13" s="13">
+        <v>41259</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>214390</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="53">
+        <v>44574</v>
+      </c>
+      <c r="B14" s="17">
+        <v>45056</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>259446</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="53">
+        <v>44579</v>
+      </c>
+      <c r="B15" s="17">
+        <v>28178</v>
+      </c>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1401,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1349,7 +1417,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1365,7 +1433,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1381,7 +1449,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1397,7 +1465,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1413,7 +1481,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
@@ -1429,7 +1497,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1445,7 +1513,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1461,7 +1529,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1477,7 +1545,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1493,7 +1561,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1509,7 +1577,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1525,7 +1593,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1541,7 +1609,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1557,7 +1625,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1573,7 +1641,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1589,7 +1657,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1605,7 +1673,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1622,7 +1690,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
@@ -1647,7 +1715,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>10000</v>
+        <v>565493</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1655,7 +1723,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>277869</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1678,7 +1746,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>10000</v>
+        <v>287624</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-37869</v>
+        <v>-87869</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-8577</v>
+        <v>-58577</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>18184</v>
+        <v>-31816</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>46449</v>
+        <v>-3551</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>73314</v>
+        <v>23314</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>102511</v>
+        <v>52511</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>144745</v>
+        <v>94745</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1321,11 +1321,15 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="15">
+        <v>44585</v>
+      </c>
+      <c r="G12" s="16">
+        <v>30000</v>
+      </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>173131</v>
+        <v>123131</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1341,11 +1345,15 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="12">
+        <v>44220</v>
+      </c>
+      <c r="G13" s="13">
+        <v>20000</v>
+      </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>214390</v>
+        <v>164390</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1365,7 +1373,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>259446</v>
+        <v>209446</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1385,7 +1393,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1401,7 +1409,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1417,7 +1425,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1433,7 +1441,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1449,7 +1457,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1465,7 +1473,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1481,7 +1489,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
@@ -1497,7 +1505,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1513,7 +1521,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1529,7 +1537,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1545,7 +1553,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1561,7 +1569,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1577,7 +1585,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1593,7 +1601,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1609,7 +1617,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1625,7 +1633,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1641,7 +1649,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1657,7 +1665,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1673,7 +1681,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1690,7 +1698,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
@@ -1723,7 +1731,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>277869</v>
+        <v>327869</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1746,7 +1754,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>287624</v>
+        <v>237624</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,39 +1397,47 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="53">
+        <v>44585</v>
+      </c>
+      <c r="B16" s="17">
+        <v>30408</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>268032</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="53">
+        <v>44588</v>
+      </c>
+      <c r="B17" s="13">
+        <v>13307</v>
+      </c>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1449,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1465,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1481,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1497,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1513,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1529,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1545,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1561,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1577,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1593,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1609,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1625,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1641,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1649,11 +1657,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1665,11 +1673,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1681,11 +1689,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1698,11 +1706,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44585</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1723,7 +1731,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>565493</v>
+        <v>609208</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1754,7 +1762,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>237624</v>
+        <v>281339</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-87869</v>
+        <v>-118556</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-58577</v>
+        <v>-89264</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,11 +1209,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-31816</v>
+        <v>-62503</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1233,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-3551</v>
+        <v>-34238</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>23314</v>
+        <v>-7373</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1281,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>52511</v>
+        <v>21824</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1305,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>94745</v>
+        <v>64058</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1329,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>123131</v>
+        <v>92444</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>164390</v>
+        <v>133703</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,15 +1369,19 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="15">
+        <v>44599</v>
+      </c>
+      <c r="G14" s="16">
+        <v>30687</v>
+      </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>209446</v>
+        <v>178759</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1397,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>237624</v>
+        <v>206937</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1417,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>268032</v>
+        <v>237345</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1437,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1453,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1469,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1485,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1501,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1517,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1533,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1549,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1565,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1581,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1597,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1613,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1629,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,11 +1645,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1657,11 +1661,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1673,11 +1677,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1689,11 +1693,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1706,11 +1710,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44594</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1739,7 +1743,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>327869</v>
+        <v>358556</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1762,7 +1766,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>281339</v>
+        <v>250652</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1161,7 +1161,7 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-118556</v>
+        <v>-163556</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-89264</v>
+        <v>-134264</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-62503</v>
+        <v>-107503</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-34238</v>
+        <v>-79238</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-7373</v>
+        <v>-52373</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>21824</v>
+        <v>-23176</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>64058</v>
+        <v>19058</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>92444</v>
+        <v>47444</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>133703</v>
+        <v>88703</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>178759</v>
+        <v>133759</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1393,11 +1393,15 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="15">
+        <v>44600</v>
+      </c>
+      <c r="G15" s="16">
+        <v>45000</v>
+      </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>206937</v>
+        <v>161937</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1417,7 +1421,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>237345</v>
+        <v>192345</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1437,7 +1441,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1453,7 +1457,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1469,7 +1473,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1485,7 +1489,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1501,7 +1505,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
@@ -1517,7 +1521,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1533,7 +1537,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1549,7 +1553,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1565,7 +1569,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1581,7 +1585,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1597,7 +1601,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1613,7 +1617,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1629,7 +1633,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1645,7 +1649,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1661,7 +1665,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1677,7 +1681,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1693,7 +1697,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1710,7 +1714,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
@@ -1743,7 +1747,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>358556</v>
+        <v>403556</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1766,7 +1770,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>250652</v>
+        <v>205652</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-163556</v>
+        <v>-212556</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-134264</v>
+        <v>-183264</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,11 +1209,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-107503</v>
+        <v>-156503</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1233,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-79238</v>
+        <v>-128238</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-52373</v>
+        <v>-101373</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1281,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-23176</v>
+        <v>-72176</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1305,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>19058</v>
+        <v>-29942</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1329,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>47444</v>
+        <v>-1556</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>88703</v>
+        <v>39703</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1377,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>133759</v>
+        <v>84759</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1401,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>161937</v>
+        <v>112937</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,15 +1417,19 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="15">
+        <v>44620</v>
+      </c>
+      <c r="G16" s="16">
+        <v>49000</v>
+      </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>192345</v>
+        <v>143345</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1445,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1461,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1477,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1493,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1509,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1525,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1541,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1557,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1573,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1589,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1605,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1621,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1637,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1649,11 +1653,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1665,11 +1669,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1681,11 +1685,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1697,11 +1701,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1714,11 +1718,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44609</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1747,7 +1751,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>403556</v>
+        <v>452556</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1770,7 +1774,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-212556</v>
+        <v>-312679</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-183264</v>
+        <v>-283387</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,11 +1209,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-156503</v>
+        <v>-256626</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1233,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-128238</v>
+        <v>-228361</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-101373</v>
+        <v>-201496</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1281,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-72176</v>
+        <v>-172299</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1305,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-29942</v>
+        <v>-130065</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1329,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-1556</v>
+        <v>-101679</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>39703</v>
+        <v>-60420</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1377,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>84759</v>
+        <v>-15364</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1401,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>112937</v>
+        <v>12814</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1425,11 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>143345</v>
+        <v>43222</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,95 +1441,119 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="15">
+        <v>44628</v>
+      </c>
+      <c r="G17" s="16">
+        <v>100123</v>
+      </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>56529</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="53">
+        <v>44616</v>
+      </c>
+      <c r="B18" s="13">
+        <v>24413</v>
+      </c>
       <c r="C18" s="14"/>
       <c r="D18" s="18"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>80942</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="53">
+        <v>44619</v>
+      </c>
+      <c r="B19" s="13">
+        <v>20376</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>101318</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="53">
+        <v>44621</v>
+      </c>
+      <c r="B20" s="13">
+        <v>24037</v>
+      </c>
       <c r="C20" s="14"/>
       <c r="D20" s="18"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>125355</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="53">
+        <v>44624</v>
+      </c>
+      <c r="B21" s="13">
+        <v>20501</v>
+      </c>
       <c r="C21" s="14"/>
       <c r="D21" s="18"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>145856</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44620</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="53">
+        <v>44625</v>
+      </c>
+      <c r="B22" s="13">
+        <v>24698</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="18"/>
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1565,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1581,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1597,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1613,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1629,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1645,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,11 +1661,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1653,11 +1677,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1669,11 +1693,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1685,11 +1709,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1701,11 +1725,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44620</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1718,11 +1742,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44620</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1743,7 +1767,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>609208</v>
+        <v>723233</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1751,7 +1775,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>452556</v>
+        <v>552679</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1774,7 +1798,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44628</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44628</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,415 +1145,301 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44477</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>240000</v>
+        <v>49000</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7">
-        <v>44488</v>
+        <v>44699</v>
       </c>
       <c r="G5" s="8">
-        <v>45000</v>
+        <v>19000</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-312679</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>157</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44482</v>
-      </c>
-      <c r="B6" s="8">
-        <v>29292</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7">
-        <v>44501</v>
+        <v>44700</v>
       </c>
       <c r="G6" s="8">
-        <v>49900</v>
+        <v>30000</v>
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-283387</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>152</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44483</v>
-      </c>
-      <c r="B7" s="16">
-        <v>26761</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44512</v>
-      </c>
-      <c r="G7" s="16">
-        <v>40000</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-256626</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>151</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44484</v>
-      </c>
-      <c r="B8" s="16">
-        <v>28265</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15">
-        <v>44512</v>
-      </c>
-      <c r="G8" s="16">
-        <v>49000</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-228361</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>150</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53">
-        <v>44486</v>
-      </c>
-      <c r="B9" s="13">
-        <v>26865</v>
-      </c>
+      <c r="A9" s="53"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15">
-        <v>44512</v>
-      </c>
-      <c r="G9" s="16">
-        <v>28969</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-201496</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>148</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53">
-        <v>44488</v>
-      </c>
-      <c r="B10" s="13">
-        <v>29197</v>
-      </c>
+      <c r="A10" s="53"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15">
-        <v>44543</v>
-      </c>
-      <c r="G10" s="16">
-        <v>35000</v>
-      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-172299</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>146</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53">
-        <v>44489</v>
-      </c>
-      <c r="B11" s="17">
-        <v>42234</v>
-      </c>
+      <c r="A11" s="53"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15">
-        <v>44554</v>
-      </c>
-      <c r="G11" s="16">
-        <v>30000</v>
-      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-130065</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>145</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="53">
-        <v>44574</v>
-      </c>
-      <c r="B12" s="17">
-        <v>28386</v>
-      </c>
+      <c r="A12" s="53"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
-      <c r="F12" s="15">
-        <v>44585</v>
-      </c>
-      <c r="G12" s="16">
-        <v>30000</v>
-      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-101679</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="53">
-        <v>44574</v>
-      </c>
-      <c r="B13" s="13">
-        <v>41259</v>
-      </c>
+      <c r="A13" s="53"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
-      <c r="F13" s="12">
-        <v>44220</v>
-      </c>
-      <c r="G13" s="13">
-        <v>20000</v>
-      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-60420</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="53">
-        <v>44574</v>
-      </c>
-      <c r="B14" s="17">
-        <v>45056</v>
-      </c>
+      <c r="A14" s="53"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
-      <c r="F14" s="15">
-        <v>44599</v>
-      </c>
-      <c r="G14" s="16">
-        <v>30687</v>
-      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-15364</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="53">
-        <v>44579</v>
-      </c>
-      <c r="B15" s="17">
-        <v>28178</v>
-      </c>
+      <c r="A15" s="53"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
-      <c r="F15" s="15">
-        <v>44600</v>
-      </c>
-      <c r="G15" s="16">
-        <v>45000</v>
-      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>12814</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="53">
-        <v>44585</v>
-      </c>
-      <c r="B16" s="17">
-        <v>30408</v>
-      </c>
+      <c r="A16" s="53"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
-      <c r="F16" s="15">
-        <v>44620</v>
-      </c>
-      <c r="G16" s="16">
-        <v>49000</v>
-      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>43222</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="53">
-        <v>44588</v>
-      </c>
-      <c r="B17" s="13">
-        <v>13307</v>
-      </c>
+      <c r="A17" s="53"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
-      <c r="F17" s="15">
-        <v>44628</v>
-      </c>
-      <c r="G17" s="16">
-        <v>100123</v>
-      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>56529</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="53">
-        <v>44616</v>
-      </c>
-      <c r="B18" s="13">
-        <v>24413</v>
-      </c>
+      <c r="A18" s="53"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="18"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>80942</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="53">
-        <v>44619</v>
-      </c>
-      <c r="B19" s="13">
-        <v>20376</v>
-      </c>
+      <c r="A19" s="53"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>101318</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="53">
-        <v>44621</v>
-      </c>
-      <c r="B20" s="13">
-        <v>24037</v>
-      </c>
+      <c r="A20" s="53"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="18"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>125355</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="53">
-        <v>44624</v>
-      </c>
-      <c r="B21" s="13">
-        <v>20501</v>
-      </c>
+      <c r="A21" s="53"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="18"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>145856</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>10</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="53">
-        <v>44625</v>
-      </c>
-      <c r="B22" s="13">
-        <v>24698</v>
-      </c>
+      <c r="A22" s="53"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="18"/>
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1451,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1467,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1483,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1499,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1515,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,11 +1531,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1661,11 +1547,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1677,11 +1563,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1693,11 +1579,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1709,11 +1595,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1725,11 +1611,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1742,11 +1628,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1767,7 +1653,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>723233</v>
+        <v>49000</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1775,7 +1661,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>552679</v>
+        <v>49000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1798,7 +1684,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME - SAGAR UNCLE</t>
+  </si>
+  <si>
+    <t>TRANSFER</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,25 +1148,25 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7">
+        <v>44743</v>
+      </c>
       <c r="B5" s="8">
-        <v>49000</v>
+        <v>160000</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44699</v>
-      </c>
-      <c r="G5" s="8">
-        <v>19000</v>
-      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44713</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1171,19 +1174,15 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44700</v>
-      </c>
-      <c r="G6" s="8">
-        <v>30000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1195,11 +1194,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1211,11 +1210,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1227,11 +1226,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,11 +1242,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,11 +1258,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1275,11 +1274,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1291,11 +1290,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1306,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,11 +1322,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1338,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1354,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1370,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1386,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1402,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1418,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1434,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1450,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1466,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1482,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1498,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1514,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1530,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1546,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1562,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1578,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1594,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1610,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1627,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1653,7 +1652,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>49000</v>
+        <v>160000</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1661,7 +1660,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1684,7 +1683,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,111 +1158,143 @@
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44750</v>
+      </c>
+      <c r="G5" s="8">
+        <v>43037</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>160000</v>
+        <v>71963</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44747</v>
+      </c>
+      <c r="B6" s="8">
+        <v>13286</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44772</v>
+      </c>
+      <c r="G6" s="8">
+        <v>45000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>160000</v>
+        <v>85249</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44747</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44768</v>
+      </c>
+      <c r="B7" s="16">
+        <v>24600</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>160000</v>
+        <v>109849</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44747</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44776</v>
+      </c>
+      <c r="B8" s="16">
+        <v>44574</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>160000</v>
+        <v>154423</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44747</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="53">
+        <v>44777</v>
+      </c>
+      <c r="B9" s="13">
+        <v>30829</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>160000</v>
+        <v>185252</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44747</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="53">
+        <v>44790</v>
+      </c>
+      <c r="B10" s="13">
+        <v>9095</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>194347</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="53">
+        <v>44789</v>
+      </c>
+      <c r="B11" s="17">
+        <v>13696</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1274,11 +1306,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1290,11 +1322,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,11 +1338,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1322,11 +1354,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,11 +1370,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1386,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1402,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1418,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1434,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1450,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1466,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1482,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1498,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1514,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1530,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1546,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1562,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1578,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1594,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1610,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1626,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1642,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,11 +1659,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1652,7 +1684,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>160000</v>
+        <v>296080</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1660,7 +1692,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>88037</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1683,7 +1715,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1166,11 +1166,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>71963</v>
+        <v>10589</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>85249</v>
+        <v>23875</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,15 +1206,19 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44810</v>
+      </c>
+      <c r="G7" s="16">
+        <v>40000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>109849</v>
+        <v>48475</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1226,15 +1230,19 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44817</v>
+      </c>
+      <c r="G8" s="16">
+        <v>21374</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>154423</v>
+        <v>93049</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1258,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>185252</v>
+        <v>123878</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,11 +1278,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>194347</v>
+        <v>132973</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1290,11 +1298,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,11 +1314,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1322,11 +1330,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,11 +1346,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1362,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1378,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1394,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1410,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1426,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1442,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1458,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1474,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1490,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1506,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1522,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1538,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1554,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1570,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1586,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1602,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1618,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1634,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,11 +1650,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1659,11 +1667,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44796</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1692,7 +1700,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>88037</v>
+        <v>149411</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1715,7 +1723,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1166,11 +1166,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>10589</v>
+        <v>-29411</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>23875</v>
+        <v>-16125</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1214,11 +1214,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>48475</v>
+        <v>8475</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1238,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>93049</v>
+        <v>53049</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,15 +1254,19 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>44834</v>
+      </c>
+      <c r="G9" s="16">
+        <v>40000</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>123878</v>
+        <v>83878</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1282,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>132973</v>
+        <v>92973</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,11 +1302,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1318,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1330,11 +1334,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1350,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1366,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1382,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1398,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1414,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1430,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1446,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1462,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1478,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1494,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1510,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1526,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1542,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1558,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1574,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1590,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1606,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1622,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1638,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1654,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1667,11 +1671,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1700,7 +1704,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>149411</v>
+        <v>189411</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1723,7 +1727,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1166,11 +1166,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-29411</v>
+        <v>-69411</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-16125</v>
+        <v>-56125</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1214,11 +1214,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>8475</v>
+        <v>-31525</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1238,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>53049</v>
+        <v>13049</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1262,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>83878</v>
+        <v>43878</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,15 +1278,19 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15">
+        <v>44847</v>
+      </c>
+      <c r="G10" s="16">
+        <v>40000</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>92973</v>
+        <v>52973</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1306,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,11 +1322,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1334,11 +1338,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,11 +1354,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1370,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1386,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1402,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1418,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1434,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1450,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1466,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1482,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1498,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1514,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1530,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1546,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1562,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1578,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1594,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1610,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1626,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,11 +1642,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1654,11 +1658,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,11 +1675,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1704,7 +1708,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>189411</v>
+        <v>229411</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1727,7 +1731,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>106669</v>
+        <v>66669</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,23 +1310,27 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="53">
+        <v>44838</v>
+      </c>
+      <c r="B12" s="17">
+        <v>23166</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1338,11 +1342,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1358,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1374,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1390,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1406,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1422,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1438,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1454,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1470,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1486,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1502,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1518,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1534,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1550,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1566,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1582,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1598,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1614,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1630,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,11 +1646,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1658,11 +1662,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1675,11 +1679,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1700,7 +1704,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>296080</v>
+        <v>319246</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1731,7 +1735,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>TRANSFER</t>
+  </si>
+  <si>
+    <t>rtgs</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>paytm from</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1086,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1096,12 +1105,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1112,7 +1121,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1121,7 +1130,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
         <v>44743</v>
       </c>
@@ -1166,14 +1175,14 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-69411</v>
+        <v>-110246</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
         <v>44747</v>
       </c>
@@ -1190,14 +1199,14 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-56125</v>
+        <v>-96960</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49">
         <v>44768</v>
       </c>
@@ -1214,14 +1223,14 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-31525</v>
+        <v>-72360</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15">
         <v>44776</v>
       </c>
@@ -1238,14 +1247,14 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>13049</v>
+        <v>-27786</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="53">
         <v>44777</v>
       </c>
@@ -1262,14 +1271,14 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>43878</v>
+        <v>3043</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="53">
         <v>44790</v>
       </c>
@@ -1286,14 +1295,14 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>52973</v>
+        <v>12138</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="53">
         <v>44789</v>
       </c>
@@ -1302,18 +1311,25 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="15">
+        <v>44869</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2688</v>
+      </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>66669</v>
+        <v>25834</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>80</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="53">
         <v>44838</v>
       </c>
@@ -1322,50 +1338,65 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="15">
+        <v>44869</v>
+      </c>
+      <c r="G12" s="16">
+        <v>22000</v>
+      </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="53"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="12">
+        <v>44869</v>
+      </c>
+      <c r="G13" s="13">
+        <v>15000</v>
+      </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44869</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="53"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1147</v>
+      </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="53"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1374,14 +1405,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="53"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1390,11 +1421,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1437,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1453,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1469,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1485,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1501,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1517,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1533,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1549,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1565,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1581,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1597,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1613,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1629,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1645,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1661,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,11 +1677,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1662,11 +1693,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1679,11 +1710,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44853</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1712,7 +1743,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>229411</v>
+        <v>270246</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1735,7 +1766,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -54,13 +54,7 @@
     <t>CUSTOMER NAME - SAGAR UNCLE</t>
   </si>
   <si>
-    <t>TRANSFER</t>
-  </si>
-  <si>
     <t>rtgs</t>
-  </si>
-  <si>
-    <t>discount</t>
   </si>
   <si>
     <t>paytm from</t>
@@ -1089,7 +1083,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A5" sqref="A5:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1157,200 +1151,134 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44743</v>
-      </c>
-      <c r="B5" s="8">
-        <v>160000</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7">
-        <v>44750</v>
-      </c>
-      <c r="G5" s="8">
-        <v>43037</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-110246</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>126</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44747</v>
-      </c>
-      <c r="B6" s="8">
-        <v>13286</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44772</v>
-      </c>
-      <c r="G6" s="8">
-        <v>45000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-96960</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>122</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44768</v>
-      </c>
-      <c r="B7" s="16">
-        <v>24600</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44810</v>
-      </c>
-      <c r="G7" s="16">
-        <v>40000</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-72360</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>101</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44776</v>
-      </c>
-      <c r="B8" s="16">
-        <v>44574</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15">
-        <v>44817</v>
-      </c>
-      <c r="G8" s="16">
-        <v>21374</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-27786</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>93</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53">
-        <v>44777</v>
-      </c>
-      <c r="B9" s="13">
-        <v>30829</v>
-      </c>
+      <c r="A9" s="53"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15">
-        <v>44834</v>
-      </c>
-      <c r="G9" s="16">
-        <v>40000</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>3043</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>92</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53">
-        <v>44790</v>
-      </c>
-      <c r="B10" s="13">
-        <v>9095</v>
-      </c>
+      <c r="A10" s="53"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15">
-        <v>44847</v>
-      </c>
-      <c r="G10" s="16">
-        <v>40000</v>
-      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>12138</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53">
-        <v>44789</v>
-      </c>
-      <c r="B11" s="17">
-        <v>13696</v>
-      </c>
+      <c r="A11" s="53"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15">
-        <v>44869</v>
-      </c>
-      <c r="G11" s="16">
-        <v>2688</v>
-      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>25834</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>44887</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="53">
-        <v>44838</v>
-      </c>
-      <c r="B12" s="17">
-        <v>23166</v>
-      </c>
+      <c r="A12" s="53"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
-      <c r="F12" s="15">
-        <v>44869</v>
-      </c>
-      <c r="G12" s="16">
-        <v>22000</v>
-      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1358,22 +1286,18 @@
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
-      <c r="F13" s="12">
-        <v>44869</v>
-      </c>
-      <c r="G13" s="13">
-        <v>15000</v>
-      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,19 +1305,15 @@
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
-      <c r="F14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1147</v>
-      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1661,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1677,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1693,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1710,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44869</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1735,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>319246</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1743,7 +1663,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>270246</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1766,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME - SAGAR UNCLE</t>
-  </si>
-  <si>
-    <t>rtgs</t>
-  </si>
-  <si>
-    <t>paytm from</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1074,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1099,12 +1093,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1109,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1">
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1124,7 +1118,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1150,55 +1144,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="7">
+        <v>44895</v>
+      </c>
+      <c r="B5" s="8">
+        <v>46420</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>46420</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44887</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A6" s="7">
+        <v>44896</v>
+      </c>
+      <c r="B6" s="8">
+        <v>24108</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>70528</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="49">
+        <v>44900</v>
+      </c>
+      <c r="B7" s="16">
+        <v>32800</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44887</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
@@ -1207,14 +1213,14 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="53"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1223,14 +1229,14 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="53"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1239,14 +1245,14 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="53"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1255,17 +1261,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="53"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1274,14 +1277,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="53"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1290,17 +1293,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="53"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1309,14 +1309,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="53"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1325,14 +1325,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="53"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1341,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44887</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1655,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>103328</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,15 +1153,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44918</v>
+      </c>
+      <c r="G5" s="8">
+        <v>35151</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>46420</v>
+        <v>11269</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,11 +1181,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>70528</v>
+        <v>35377</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,75 +1201,91 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>103328</v>
+        <v>68177</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44929</v>
+      </c>
+      <c r="B8" s="16">
+        <v>37673</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>103328</v>
+        <v>105850</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44916</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="53">
+        <v>44930</v>
+      </c>
+      <c r="B9" s="13">
+        <v>20224</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>103328</v>
+        <v>126074</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44916</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="53">
+        <v>44932</v>
+      </c>
+      <c r="B10" s="13">
+        <v>20384</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>146458</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="53">
+        <v>44932</v>
+      </c>
+      <c r="B11" s="17">
+        <v>31117</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1297,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,11 +1313,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1329,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1345,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1361,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1377,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1393,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1409,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1425,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1441,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1457,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1473,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1489,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1505,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1521,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1537,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1553,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1569,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1585,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1601,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1617,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1633,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1650,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44916</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1655,7 +1675,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>103328</v>
+        <v>212726</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1663,7 +1683,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>35151</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1686,7 +1706,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>11269</v>
+        <v>-57742</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,15 +1177,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44949</v>
+      </c>
+      <c r="G6" s="8">
+        <v>39011</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>35377</v>
+        <v>-33634</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,15 +1201,19 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44956</v>
+      </c>
+      <c r="G7" s="16">
+        <v>30000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>68177</v>
+        <v>-834</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1229,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>105850</v>
+        <v>36839</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1249,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>126074</v>
+        <v>57063</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1269,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>146458</v>
+        <v>77447</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1289,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1305,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1313,11 +1321,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1337,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1353,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1369,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1385,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1401,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1417,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1433,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1449,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1465,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1481,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1497,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1513,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1529,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1545,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1561,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1577,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1593,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1609,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1625,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1641,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1658,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44944</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1683,7 +1691,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>35151</v>
+        <v>104162</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1706,7 +1714,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME - SAGAR UNCLE</t>
+  </si>
+  <si>
+    <t>sagar uncle</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,155 +1148,119 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44895</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>46420</v>
+        <v>50000</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44918</v>
-      </c>
-      <c r="G5" s="8">
-        <v>35151</v>
-      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-57742</v>
+        <v>50000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>74</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44896</v>
-      </c>
-      <c r="B6" s="8">
-        <v>24108</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44949</v>
-      </c>
-      <c r="G6" s="8">
-        <v>39011</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-33634</v>
+        <v>50000</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>73</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44900</v>
-      </c>
-      <c r="B7" s="16">
-        <v>32800</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44956</v>
-      </c>
-      <c r="G7" s="16">
-        <v>30000</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-834</v>
+        <v>50000</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>69</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44929</v>
-      </c>
-      <c r="B8" s="16">
-        <v>37673</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>36839</v>
+        <v>50000</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>40</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53">
-        <v>44930</v>
-      </c>
-      <c r="B9" s="13">
-        <v>20224</v>
-      </c>
+      <c r="A9" s="53"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>57063</v>
+        <v>50000</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>39</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53">
-        <v>44932</v>
-      </c>
-      <c r="B10" s="13">
-        <v>20384</v>
-      </c>
+      <c r="A10" s="53"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>77447</v>
+        <v>50000</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53">
-        <v>44932</v>
-      </c>
-      <c r="B11" s="17">
-        <v>31117</v>
-      </c>
+      <c r="A11" s="53"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1272,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1321,11 +1288,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1304,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1320,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1336,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1352,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1368,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1384,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1400,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1416,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1432,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1448,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1464,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1480,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1496,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1512,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1528,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1544,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1560,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1576,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1592,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,11 +1608,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1658,11 +1625,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44969</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1683,7 +1650,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>212726</v>
+        <v>50000</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1691,7 +1658,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>104162</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1714,7 +1681,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME - SAGAR UNCLE</t>
-  </si>
-  <si>
-    <t>sagar uncle</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1149,22 +1146,18 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="8">
-        <v>50000</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1176,11 +1169,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,11 +1185,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1208,11 +1201,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1224,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1256,11 +1249,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1288,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1304,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44981</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1650,7 +1643,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1681,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SAGAR UNCLE.xlsx
+++ b/IMPORTANT/SAGAR UNCLE.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
